--- a/output.xlsx
+++ b/output.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>UserName</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Abcd@1234</t>
-  </si>
-  <si>
-    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -363,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -390,9 +387,6 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
